--- a/data/survey_data_tidy.xlsx
+++ b/data/survey_data_tidy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiekogut/tfcb_2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0560DD8-0FB0-F44C-837A-23813FC8F7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7BFD42-2490-824A-9B22-6B68FB74AA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="13500" windowHeight="16940" xr2:uid="{4A6CAA98-555C-324B-8262-E6EFC7F0D2B3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="22">
   <si>
     <t>plot</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>OL</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -465,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447C1EAB-8445-1A45-BA50-B9A46A5CDE56}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -624,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -650,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -676,7 +679,7 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -702,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -728,7 +731,7 @@
         <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -754,7 +757,7 @@
         <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -780,7 +783,7 @@
         <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -806,7 +809,7 @@
         <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -832,7 +835,7 @@
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -858,7 +861,7 @@
         <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -884,7 +887,7 @@
         <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -910,7 +913,7 @@
         <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -988,7 +991,7 @@
         <v>8</v>
       </c>
       <c r="H20" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1014,7 +1017,7 @@
         <v>8</v>
       </c>
       <c r="H21" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1040,7 +1043,7 @@
         <v>8</v>
       </c>
       <c r="H22" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1066,7 +1069,7 @@
         <v>8</v>
       </c>
       <c r="H23" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1092,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="H24" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1170,7 +1173,7 @@
         <v>8</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1196,7 +1199,7 @@
         <v>8</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1222,7 +1225,7 @@
         <v>8</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1248,7 +1251,7 @@
         <v>8</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1274,7 +1277,7 @@
         <v>8</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1300,7 +1303,7 @@
         <v>8</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1326,7 +1329,7 @@
         <v>8</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1352,7 +1355,7 @@
         <v>8</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1404,7 +1407,7 @@
         <v>8</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1430,7 +1433,7 @@
         <v>8</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -1456,7 +1459,7 @@
         <v>8</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -1586,7 +1589,7 @@
         <v>8</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -1611,8 +1614,8 @@
       <c r="G44" t="s">
         <v>8</v>
       </c>
-      <c r="H44" t="s">
-        <v>8</v>
+      <c r="H44" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -1637,8 +1640,8 @@
       <c r="G45" t="s">
         <v>8</v>
       </c>
-      <c r="H45" t="s">
-        <v>8</v>
+      <c r="H45" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -1716,7 +1719,7 @@
         <v>8</v>
       </c>
       <c r="H48" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -1742,7 +1745,7 @@
         <v>8</v>
       </c>
       <c r="H49" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -1768,7 +1771,7 @@
         <v>8</v>
       </c>
       <c r="H50" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -1794,7 +1797,7 @@
         <v>8</v>
       </c>
       <c r="H51" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -1820,7 +1823,7 @@
         <v>8</v>
       </c>
       <c r="H52" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -1872,7 +1875,7 @@
         <v>8</v>
       </c>
       <c r="H54" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -1898,7 +1901,7 @@
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -1924,7 +1927,7 @@
         <v>8</v>
       </c>
       <c r="H56" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
